--- a/doc/数据分析.xlsx
+++ b/doc/数据分析.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13097\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13097\Desktop\BigCode\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1514D967-CC9C-4AC3-ABC8-0F0B88D7976C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70818414-2F91-4B31-83D7-2DE357DC8C6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{337ABCDA-FEDA-4DDA-9FE1-BB8F066FECE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>黄老师催促前每天做题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,21 +80,6 @@
   </si>
   <si>
     <t>黄老师催促后的增长率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求和</t>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +196,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.5783102720957994E-2"/>
+          <c:y val="7.4547916652537308E-2"/>
+          <c:w val="0.95421689727904202"/>
+          <c:h val="0.75584718576844556"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -547,10 +536,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.312</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84199999999999997</c:v>
+                  <c:v>0.83499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.56</c:v>
@@ -758,13 +747,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.80800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98899999999999999</c:v>
+                  <c:v>1.333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3149999999999999</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.16</c:v>
@@ -1066,8 +1055,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.1650481189851266E-2"/>
-          <c:y val="0.17113444152814231"/>
+          <c:x val="7.2881740007724266E-2"/>
+          <c:y val="0.1742265982985893"/>
           <c:w val="0.8762384076990376"/>
           <c:h val="0.76868037328667249"/>
         </c:manualLayout>
@@ -1123,7 +1112,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1175,10 +1164,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.1619999999999999</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9380000000000002</c:v>
+                  <c:v>3.1720000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.026</c:v>
@@ -2506,16 +2495,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2542,15 +2531,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2878,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5018FAB-9B5B-4448-AB8A-2DFA6B04A7A7}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L32" sqref="A31:L32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2930,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.312</v>
+        <v>0.35</v>
       </c>
       <c r="D2">
-        <v>0.84199999999999997</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="E2">
         <v>1.56</v>
@@ -2968,13 +2957,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="C3">
-        <v>0.98899999999999999</v>
+        <v>1.333</v>
       </c>
       <c r="D3">
-        <v>3.3149999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="E3">
         <v>3.16</v>
@@ -3044,10 +3033,10 @@
         <v>13</v>
       </c>
       <c r="B32">
-        <v>2.1619999999999999</v>
+        <v>2.81</v>
       </c>
       <c r="C32">
-        <v>2.9380000000000002</v>
+        <v>3.1720000000000002</v>
       </c>
       <c r="D32">
         <v>1.026</v>

--- a/doc/数据分析.xlsx
+++ b/doc/数据分析.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13097\Desktop\BigCode\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\BigCode\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70818414-2F91-4B31-83D7-2DE357DC8C6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96A3A7-76BE-448E-9633-25ABAEC27690}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{337ABCDA-FEDA-4DDA-9FE1-BB8F066FECE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>黄老师催促前每天做题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1056,7 +1056,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.2881740007724266E-2"/>
-          <c:y val="0.1742265982985893"/>
+          <c:y val="0.16495016045072289"/>
           <c:w val="0.8762384076990376"/>
           <c:h val="0.76868037328667249"/>
         </c:manualLayout>
@@ -1112,46 +1112,50 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$B$31:$L$31</c:f>
+              <c:f>Sheet1!$B$31:$M$31</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1~5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1~5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6~10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>11~20</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>21~30</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>31~40</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41~50</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>51~65</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>66~80</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>81~99</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>100~120</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>120~200</c:v>
                 </c:pt>
               </c:strCache>
@@ -1159,42 +1163,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$32:$L$32</c:f>
+              <c:f>Sheet1!$B$32:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.81</c:v>
+                  <c:v>0.80800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1720000000000002</c:v>
+                  <c:v>0.98299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.026</c:v>
+                  <c:v>2.665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09</c:v>
+                  <c:v>0.95899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13400000000000001</c:v>
+                  <c:v>0.32600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.29199999999999998</c:v>
+                  <c:v>0.61499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14299999999999999</c:v>
+                  <c:v>-1.7450000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.219</c:v>
+                  <c:v>1.0640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.32900000000000001</c:v>
+                  <c:v>-1.9359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.58199999999999996</c:v>
+                  <c:v>-3.6230000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.4179999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2495,16 +2502,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2534,13 +2541,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2867,8 +2874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5018FAB-9B5B-4448-AB8A-2DFA6B04A7A7}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2993,82 +3000,89 @@
         <v>6.0510000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>4</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>5</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>6</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>7</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>8</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>9</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>10</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>11</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32">
-        <v>2.81</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="C32">
-        <v>3.1720000000000002</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="D32">
-        <v>1.026</v>
+        <v>2.665</v>
       </c>
       <c r="E32">
-        <v>0.37</v>
+        <v>1.6</v>
       </c>
       <c r="F32">
-        <v>0.09</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="G32">
-        <v>0.13400000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="H32">
-        <v>-0.29199999999999998</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="I32">
-        <v>0.14299999999999999</v>
+        <v>-1.7450000000000001</v>
       </c>
       <c r="J32">
-        <v>-0.219</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="K32">
-        <v>-0.32900000000000001</v>
+        <v>-1.9359999999999999</v>
       </c>
       <c r="L32">
-        <v>-0.58199999999999996</v>
+        <v>-3.6230000000000002</v>
+      </c>
+      <c r="M32">
+        <v>-8.4179999999999993</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>